--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1959234.718521846</v>
+        <v>1956217.128120909</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>77.60951470632871</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>243.6919025106853</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.91401559658143</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>35.87311879344071</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.03432203660893</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>65.13835619566984</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>27.37301815329013</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>85.78096405722439</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.8931035241705</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>41.82038493216709</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>58.69923944397664</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>188.4590648403947</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238229</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>116.6909399905476</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>79.1257766588772</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>155.8385935972308</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.5413943066424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.86696197154649</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.306260043177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>58.45940450219441</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>60.54139430664206</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>197.7374713145473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>134.0409264559677</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>86.35693236788208</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3755,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113201</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>234.8620629871589</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,16 +4135,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4153,7 +4153,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>189.4143486215002</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.306260043177</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2563.726952350404</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2345.092285322467</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2345.092285322467</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2345.092285322467</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.092285322467</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.092285322467</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.952953346655</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419423</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>81.59249510651611</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>336.276983312403</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>336.276983312403</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="U7" t="n">
-        <v>336.276983312403</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="V7" t="n">
-        <v>81.59249510651611</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="W7" t="n">
-        <v>81.59249510651611</v>
+        <v>463.9179680525992</v>
       </c>
       <c r="X7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.59249510651611</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.7554128984183</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>471.403877728658</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>471.403877728658</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X10" t="n">
-        <v>471.403877728658</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.403877728658</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,40 +5051,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262065</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.553578799928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.424940013486</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>764.7404518075996</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>475.323281770639</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>208.7516828383384</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401274049</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>326.6213191924269</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.7516828383384</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,22 +5525,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001781</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281743</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945776</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164473</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
         <v>527.3450129705744</v>
@@ -5668,19 +5668,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1219.071233545296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>929.9425947588544</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>675.2581065529675</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.2581065529675</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514079</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557903</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.503549752619</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,13 +6002,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3721.107993746785</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>159.1396882805839</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>570.0299571250966</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>4208.336137767206</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>4039.399954839299</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>4838.766732638993</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557903</v>
+        <v>4610.777181740976</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>4389.984602597446</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,49 +6458,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962217</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.139178847506</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507263</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.17326292487</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.10799374678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294724</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916671</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014294</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014294</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014294</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014294</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014294</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4860.854573014294</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>4684.787643677745</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,28 +6722,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.1696912903951</v>
+        <v>1050.134140516355</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1696912903951</v>
+        <v>881.1979575884482</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6853,19 +6853,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6874,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324578</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>359.1696912903951</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>359.1696912903951</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1696912903951</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,16 +6950,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3776.004670426976</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808407</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4406.435265298763</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4178.445714400746</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>3957.653135257216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3777.748724048912</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>3777.748724048912</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>3777.748724048912</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4637.069157803799</v>
+        <v>1363.521395349854</v>
       </c>
       <c r="U40" t="n">
-        <v>4637.069157803799</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="V40" t="n">
-        <v>4382.384669597912</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="W40" t="n">
-        <v>4092.967499560951</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X40" t="n">
-        <v>3864.977948662934</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y40" t="n">
-        <v>3777.748724048912</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602859</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845922</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528587</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1818.397748747284</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P42" t="n">
-        <v>2338.698370483031</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974675</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980072</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585755</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557911</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557911</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557911</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557911</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1261.681863500174</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>972.2646934632138</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632138</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D46" t="n">
-        <v>822.148054050878</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684849</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705745</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557903</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557903</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735861</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229573</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776731</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776735</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>20.63789864135394</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711658</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208048</v>
       </c>
       <c r="Q42" t="n">
-        <v>199.7396287231146</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>33.0884962179945</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>101.8937133615472</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>142.421784399512</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>140.3375291694992</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,16 +24178,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>163.899125433865</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>130.6844047393602</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>225.9816040299486</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>88.0973904322463</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.27839330891777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>90.15606851601794</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>225.9816040299489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>88.78552702204368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25600,22 +25600,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>87.50663460242151</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.2277209842127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,22 +25834,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>17.27558033666915</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,16 +26023,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>32.13321243688901</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.27839330891777</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538232</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>508337.7776590216</v>
-      </c>
-      <c r="H2" t="n">
-        <v>508337.7776590218</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
@@ -26341,19 +26341,19 @@
         <v>508337.7776590217</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295509.5506079249</v>
+        <v>-295924.7651173922</v>
       </c>
       <c r="C6" t="n">
-        <v>294458.3286066197</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
-        <v>294458.3286066198</v>
+        <v>294043.1140971525</v>
       </c>
       <c r="E6" t="n">
-        <v>-123521.0854209009</v>
+        <v>-123855.2543880301</v>
       </c>
       <c r="F6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="G6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.782088866</v>
       </c>
       <c r="H6" t="n">
-        <v>401638.9510559957</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="I6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="J6" t="n">
-        <v>225215.7318634025</v>
+        <v>224881.5628962729</v>
       </c>
       <c r="K6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.782088866</v>
       </c>
       <c r="L6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.782088866</v>
       </c>
       <c r="M6" t="n">
-        <v>266837.9358221584</v>
+        <v>266503.766855029</v>
       </c>
       <c r="N6" t="n">
-        <v>401638.9510559957</v>
+        <v>401304.7820888659</v>
       </c>
       <c r="O6" t="n">
-        <v>401638.9510559955</v>
+        <v>401304.782088866</v>
       </c>
       <c r="P6" t="n">
-        <v>401638.9510559954</v>
+        <v>401304.7820888658</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26811,13 +26811,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>96.80619810264282</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>142.5460361453683</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>96.50703242634981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>189.8365365955964</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.6995196268716</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>316.7920138765919</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.82694103524687</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>139.2541414008599</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.34483513188309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>125.4264361664607</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>167.0104159450605</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.373124167817878e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>8.10681891986557e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586603</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091978</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.54807759626065</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016557092</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523295</v>
       </c>
       <c r="Q42" t="n">
-        <v>287.7526615081887</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056118</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1956217.128120909</v>
+        <v>2031746.797785715</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>370.304756115063</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.6919025106853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>35.87311879344071</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>65.13835619566984</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>178.9784108326712</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +952,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>116.8224079003185</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>85.78096405722439</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231298</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>39.04196664247885</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>58.69923944397664</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185942</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>280.6393462366927</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>146.1854691670918</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431772</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371562</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452383</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.86696197154649</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>67.9008878265364</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>58.45940450219441</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.8434257527672</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>134.0409264559677</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>189.4143486215002</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1394.624369323446</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y4" t="n">
-        <v>373.0594214943678</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1912.197604328644</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.883734065348</v>
+        <v>1543.235087388232</v>
       </c>
       <c r="D5" t="n">
-        <v>1275.883734065348</v>
+        <v>1184.969388781481</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>799.1811361832372</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>388.1952313936296</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1912.197604328644</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>463.9179680525992</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>463.9179680525992</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>463.9179680525992</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>463.9179680525992</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.9284171545819</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.7159451700479</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>433.9276925718037</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4819,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1933.544000781332</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>659.2757351181587</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>404.5912469122718</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1482364572794</v>
+        <v>404.5912469122718</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>404.5912469122718</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>404.5912469122718</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920733</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.635342139431</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5176,16 +5178,16 @@
         <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5194,19 +5196,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,31 +5217,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="Y13" t="n">
         <v>1322.84934122136</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155913</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805494</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822487</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954974</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5595,22 +5597,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1440.685527502827</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>1440.685527502827</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>1186.00103929694</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>896.5838692599799</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X22" t="n">
-        <v>668.5943183619626</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,37 +6001,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.19758416447</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4555.115143601279</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6148,46 +6150,46 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,34 +6217,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6305,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4208.336137767206</v>
+        <v>324.3840174432673</v>
       </c>
       <c r="C28" t="n">
-        <v>4039.399954839299</v>
+        <v>155.4478345153604</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4838.766732638993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4838.766732638993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4838.766732638993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4838.766732638993</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4838.766732638993</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>4838.766732638993</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X28" t="n">
-        <v>4610.777181740976</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y28" t="n">
-        <v>4389.984602597446</v>
+        <v>506.0324822735071</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>3893.336020727022</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>3603.918850690061</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1050.134140516355</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C34" t="n">
-        <v>881.1979575884482</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D34" t="n">
-        <v>822.148054050878</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684849</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705745</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
         <v>359.1696912903951</v>
@@ -6853,25 +6855,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6889,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="X34" t="n">
-        <v>1270.926719659885</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.134140516355</v>
+        <v>1209.78763177146</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,34 +6934,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>1089.278254829645</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1270.926719659885</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7169,55 +7171,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>241.980548233671</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>241.980548233671</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>241.980548233671</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>241.980548233671</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>241.980548233671</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>241.980548233671</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>1363.521395349854</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1074.392756563412</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V40" t="n">
-        <v>1074.392756563412</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W40" t="n">
-        <v>784.9755865264517</v>
+        <v>241.980548233671</v>
       </c>
       <c r="X40" t="n">
-        <v>784.9755865264517</v>
+        <v>241.980548233671</v>
       </c>
       <c r="Y40" t="n">
-        <v>564.1830073829216</v>
+        <v>241.980548233671</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7399,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7761,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7813,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T46" t="n">
-        <v>1107.668635603252</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1107.668635603252</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1107.668635603252</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>818.2514655662918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>818.2514655662918</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.4588864227617</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>145.0294169142009</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>145.2351313103786</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>360.5026862907258</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208048</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871777</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>5.598006161884655</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>140.3375291694992</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>163.899125433865</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.27839330891754</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.26883114644706</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.96703739368851</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.0973904322463</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,10 +24660,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>111.9310923554009</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>90.15606851601794</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>51.40339534586515</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986324</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>5.598006161884854</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>87.50663460242151</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25834,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>32.13321243688901</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.8073538232</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538227</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="F2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="F2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="G2" t="n">
-        <v>508337.7776590217</v>
-      </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590218</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26454,7 +26456,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26473,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173922</v>
+        <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971523</v>
+        <v>294043.1140971527</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971525</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880301</v>
+        <v>-123855.2543880304</v>
       </c>
       <c r="F6" t="n">
         <v>401304.7820888659</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888663</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888659</v>
+        <v>401304.7820888658</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888659</v>
+        <v>401304.7820888661</v>
       </c>
       <c r="J6" t="n">
         <v>224881.5628962729</v>
@@ -26549,19 +26551,19 @@
         <v>401304.782088866</v>
       </c>
       <c r="L6" t="n">
-        <v>401304.782088866</v>
+        <v>401304.7820888661</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.766855029</v>
+        <v>266503.7668550289</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888659</v>
+        <v>401304.7820888661</v>
       </c>
       <c r="O6" t="n">
         <v>401304.782088866</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.7820888658</v>
+        <v>401304.782088866</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
     </row>
     <row r="4">
@@ -26793,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>12.42908554841756</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>142.5460361453683</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014699</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27594,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>189.8365365955964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>316.7920138765919</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>234.8057591881237</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>39.34848094147662</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>139.2541414008599</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858167</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.623225337679</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>167.0104159450605</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29047,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29223,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30144,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30381,7 +30383,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31521,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33116,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33590,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34299,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34536,10 +34538,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>352.3285462419034</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,10 +35965,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>609.76039124675</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35981,7 +35983,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799247</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523295</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031746.797785715</v>
+        <v>2024729.782894003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.304756115063</v>
+        <v>60.77270032618416</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>156.0476423538178</v>
       </c>
       <c r="G5" t="n">
-        <v>178.9784108326712</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>116.8224079003185</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>97.4271589199805</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>34.31940075816956</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231298</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.04196664247885</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185942</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>280.6393462366927</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.39375411340992</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.6519788371562</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452383</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>79.71208056177232</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>25.37433807241459</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.9008878265364</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>115.8434257527672</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>143.3158222056513</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151914</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151914</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2323.103882821189</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1912.197604328644</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C5" t="n">
-        <v>1543.235087388232</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D5" t="n">
-        <v>1184.969388781481</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E5" t="n">
-        <v>799.1811361832372</v>
+        <v>378.9562430521565</v>
       </c>
       <c r="F5" t="n">
-        <v>388.1952313936296</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2302.336936304455</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1912.197604328644</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.8207968750362</v>
+        <v>418.6523285934727</v>
       </c>
       <c r="C7" t="n">
-        <v>500.8207968750362</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>500.8207968750362</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>500.8207968750362</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>353.9308493771258</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>353.9308493771258</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750362</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>262.9439240077758</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700479</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718037</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781332</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.9427820820321</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>222.9427820820321</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>222.9427820820321</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9427820820321</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>222.9427820820321</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>659.2757351181587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>659.2757351181587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>659.2757351181587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>659.2757351181587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>404.5912469122718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>404.5912469122718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>404.5912469122718</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122718</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766206</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920733</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.635342139431</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
         <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
         <v>2208.321444831246</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247867</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383449</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>420.322614832458</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954974</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.2170914602859</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
         <v>2016.139981183168</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>791.73675815519</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>537.0522699493032</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>247.6350999123426</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123426</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5831,16 +5831,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.13917884751</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919603</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.78764367775</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="23">
@@ -5968,28 +5968,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514081</v>
@@ -6001,37 +6001,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.19758416447</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>4555.115143601279</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028584</v>
@@ -6150,49 +6150,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1375.025382843599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6247,16 +6247,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432673</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153604</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150545</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170372</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735071</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,13 +6542,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>3893.336020727022</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>3603.918850690061</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.78763177146</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.78763177146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.78763177146</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,28 +6955,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.278254829645</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>1270.926719659885</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,28 +7192,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765184</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706316</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.980548233671</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>241.980548233671</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7636,25 +7636,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,7 +7666,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643586</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7815,13 +7815,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>176.7176547498451</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>145.2351313103786</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863221</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208072</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208072</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>33.38685156731854</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871777</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.598006161884655</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.2217189048024</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>75.26883114644706</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368851</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,16 +24654,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>206.8109177748187</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>200.3353173166226</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.9310923554009</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>51.40339534586515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>33.08849621799477</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>5.598006161884854</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338591</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338591</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>874521.8073538227</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117845</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117848</v>
       </c>
-      <c r="D2" t="n">
-        <v>533677.1504117845</v>
-      </c>
       <c r="E2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
         <v>508337.7776590217</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="L2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26435,7 +26435,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
+        <v>294043.1140971525</v>
+      </c>
+      <c r="D6" t="n">
         <v>294043.1140971527</v>
       </c>
-      <c r="D6" t="n">
-        <v>294043.1140971525</v>
-      </c>
       <c r="E6" t="n">
-        <v>-123855.2543880304</v>
+        <v>-124829.8456477519</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888659</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888663</v>
+        <v>400330.1908291443</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888658</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888661</v>
+        <v>400330.1908291441</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962729</v>
+        <v>223906.9716365513</v>
       </c>
       <c r="K6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="L6" t="n">
-        <v>401304.7820888661</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="M6" t="n">
-        <v>266503.7668550289</v>
+        <v>265529.175595307</v>
       </c>
       <c r="N6" t="n">
-        <v>401304.7820888661</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="O6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291442</v>
       </c>
       <c r="P6" t="n">
-        <v>401304.782088866</v>
+        <v>400330.1908291442</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.42908554841756</v>
+        <v>321.9611413372964</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,10 +27435,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.04847948014699</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>250.8284033878936</v>
       </c>
       <c r="G5" t="n">
-        <v>234.8057591881237</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>39.34848094147662</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1574944321143</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858167</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>107.623225337679</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30383,7 +30383,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32879,10 +32879,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33268,7 +33268,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33277,10 +33277,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33356,7 +33356,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,10 +33368,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,10 +33827,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>487.1420318003114</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>352.3285462419034</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178469</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523318</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799247</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523318</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024729.782894003</v>
+        <v>2029669.045743035</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.77270032618416</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.46389722690827</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>156.0476423538178</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>30.85507107620364</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.4271589199805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>34.31940075816956</v>
+        <v>32.44203069056164</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C10" t="n">
-        <v>14.46389722690833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>144.1504526722474</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>136.826674379294</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>76.48708851141279</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>23.39375411340992</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,55 +2478,55 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>115.5269768002176</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>172.0097189672965</v>
       </c>
       <c r="W28" t="n">
-        <v>79.71208056177232</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>25.37433807241459</v>
+        <v>122.4686819962961</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.7674561528134</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940985</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117053</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>283.209303713795</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521274</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764.7444956504007</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C5" t="n">
-        <v>764.7444956504007</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>764.7444956504007</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>378.9562430521565</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2665.982352557411</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2489.804864871581</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2236.043079509672</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.6523285934727</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="Y7" t="n">
-        <v>600.3007934237124</v>
+        <v>721.1507201626711</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481875</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C8" t="n">
-        <v>262.9439240077758</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4846,10 +4846,10 @@
         <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4962,52 +4962,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,31 +5296,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201016</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1160.787498474168</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>871.6588596877259</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>582.2416896507652</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>886.8760564597223</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="20">
@@ -5728,73 +5728,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C22" t="n">
-        <v>268.760239702689</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="23">
@@ -5968,52 +5968,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>564.1830073829216</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C28" t="n">
-        <v>395.2468244550147</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D28" t="n">
-        <v>245.1301850426789</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="W28" t="n">
-        <v>1194.613602254709</v>
+        <v>790.3885509487287</v>
       </c>
       <c r="X28" t="n">
-        <v>966.6240513566914</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="Y28" t="n">
-        <v>745.8314722131613</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>416.2699138005285</v>
+        <v>796.6647223443018</v>
       </c>
       <c r="Y31" t="n">
-        <v>416.2699138005285</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>1200.197272015876</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>910.7801019789154</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,34 +7405,34 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7836,19 +7836,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.7176547498451</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863231</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>2.283509974321817</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.38685156731854</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>84.7208866790952</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.6505548124152</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>125.2217189048024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>51.71984429841024</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>80.12792435653151</v>
       </c>
       <c r="W28" t="n">
-        <v>206.8109177748187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>200.3353173166226</v>
+        <v>103.240973392741</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.08849621799477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>12.15335383078983</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117848</v>
@@ -26325,25 +26325,25 @@
         <v>508337.7776590216</v>
       </c>
       <c r="F2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>508337.7776590216</v>
+      </c>
+      <c r="H2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>508337.7776590217</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="K2" t="n">
+        <v>508337.7776590217</v>
+      </c>
+      <c r="L2" t="n">
         <v>508337.7776590215</v>
-      </c>
-      <c r="I2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="J2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>508337.7776590216</v>
-      </c>
-      <c r="L2" t="n">
-        <v>508337.7776590216</v>
       </c>
       <c r="M2" t="n">
         <v>508337.7776590216</v>
@@ -26352,10 +26352,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="O2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,7 +26435,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971525</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971527</v>
       </c>
       <c r="E6" t="n">
-        <v>-124829.8456477519</v>
+        <v>-123952.7135140023</v>
       </c>
       <c r="F6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="G6" t="n">
-        <v>400330.1908291443</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="H6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="I6" t="n">
-        <v>400330.1908291441</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="J6" t="n">
-        <v>223906.9716365513</v>
+        <v>224784.103770301</v>
       </c>
       <c r="K6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628938</v>
       </c>
       <c r="L6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="M6" t="n">
-        <v>265529.175595307</v>
+        <v>266406.3077290565</v>
       </c>
       <c r="N6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="O6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="P6" t="n">
-        <v>400330.1908291442</v>
+        <v>401207.3229628936</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321.9611413372964</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>116.7497573142985</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,22 +27542,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>141.7069916148869</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>250.8284033878936</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.62333149860806</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.21426855158856</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>121.1574944321143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>320.3636408625134</v>
+        <v>322.2410109301213</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C10" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>487.1420318003114</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
